--- a/request_data/request.xlsx
+++ b/request_data/request.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obaliuta\Desktop\houseprices-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleh\Desktop\GitHub\houseprices\request_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD96362-EEC2-460A-BE69-6B0A32446A7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA386E02-79D0-4271-9490-DDD8F6BB429C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{84DD5837-D212-43AF-9BAF-8709641195E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84DD5837-D212-43AF-9BAF-8709641195E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>longitude</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>INLAND</t>
+  </si>
+  <si>
+    <t>NEAR BAY</t>
+  </si>
+  <si>
+    <t>&lt;1H OCEAN</t>
+  </si>
+  <si>
+    <t>NEAR OCEAN</t>
+  </si>
+  <si>
+    <t>ISLAND</t>
   </si>
 </sst>
 </file>
@@ -125,8 +137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8ACD597-4160-41A2-A541-9B6FEEC1F76F}" name="Table2" displayName="Table2" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{BF5EFD4E-5202-4844-87D6-0E9C998741DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8ACD597-4160-41A2-A541-9B6FEEC1F76F}" name="Table2" displayName="Table2" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{BF5EFD4E-5202-4844-87D6-0E9C998741DF}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AE671EB4-6EBA-4E24-B9AD-BAB394CD175D}" name="longitude" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{41A07971-AA68-4D16-B62F-6AAB1469BA1D}" name="latitude"/>
@@ -439,19 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD874D7-03C6-4BC9-B49B-807674853112}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="9.6328125" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>-121.89</v>
       </c>
@@ -509,7 +521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>-121.89</v>
       </c>
@@ -535,7 +547,123 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>-121.48</v>
+      </c>
+      <c r="B4">
+        <v>38.56</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>1500</v>
+      </c>
+      <c r="G4">
+        <v>550</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="I4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>-122.4</v>
+      </c>
+      <c r="B5">
+        <v>37.75</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>2500</v>
+      </c>
+      <c r="E5">
+        <v>900</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>121.79</v>
+      </c>
+      <c r="B6">
+        <v>36.78</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6">
+        <v>550</v>
+      </c>
+      <c r="G6">
+        <v>270</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>118.55</v>
+      </c>
+      <c r="B7">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/request_data/request.xlsx
+++ b/request_data/request.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleh\Desktop\GitHub\houseprices\request_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA386E02-79D0-4271-9490-DDD8F6BB429C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54154EAE-25C2-40F4-8F7B-87E02EB11567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84DD5837-D212-43AF-9BAF-8709641195E5}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>121.79</v>
+        <v>-121.79</v>
       </c>
       <c r="B6">
         <v>36.78</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>118.55</v>
+        <v>-118.55</v>
       </c>
       <c r="B7">
         <v>32.979999999999997</v>

--- a/request_data/request.xlsx
+++ b/request_data/request.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleh\Desktop\GitHub\houseprices\request_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54154EAE-25C2-40F4-8F7B-87E02EB11567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598AC240-C49B-4B66-8EE2-C634378C4820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84DD5837-D212-43AF-9BAF-8709641195E5}"/>
   </bookViews>
